--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,14 +469,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -491,16 +488,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -805,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,6 +1412,9 @@
       <c r="C53">
         <v>51</v>
       </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
       <c r="E53" t="s">
         <v>100</v>
       </c>
@@ -1507,15 +1497,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula xml:space="preserve"> ISBLANK($D$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ISBLANK($D$3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C59">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISBLANK($D$3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,7 +797,7 @@
   <dimension ref="B2:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,6 +1429,9 @@
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
       </c>
       <c r="E54" t="s">
         <v>102</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -425,6 +425,46 @@
   <si>
     <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e user</t>
+  </si>
+  <si>
+    <t>AL ORr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THEs</t>
+  </si>
+  <si>
+    <t>ES ATTACHEDs</t>
+  </si>
+  <si>
+    <t>LE ITEMe</t>
+  </si>
+  <si>
+    <t>S THEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THATf</t>
+  </si>
+  <si>
+    <t>ELEGATEf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WITHr</t>
+  </si>
+  <si>
+    <t>NER FORs</t>
+  </si>
+  <si>
+    <t>TES As</t>
   </si>
 </sst>
 </file>
@@ -796,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1230,6 +1270,9 @@
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -428,43 +428,11 @@
   </si>
   <si>
     <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e user</t>
-  </si>
-  <si>
-    <t>AL ORr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THEs</t>
-  </si>
-  <si>
-    <t>ES ATTACHEDs</t>
-  </si>
-  <si>
-    <t>LE ITEMe</t>
-  </si>
-  <si>
-    <t>S THEs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THATf</t>
-  </si>
-  <si>
-    <t>ELEGATEf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WITHr</t>
-  </si>
-  <si>
-    <t>NER FORs</t>
-  </si>
-  <si>
-    <t>TES As</t>
   </si>
 </sst>
 </file>
@@ -836,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1240,7 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>68</v>
@@ -1331,6 +1299,9 @@
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
       </c>
       <c r="E42" t="s">
         <v>78</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -804,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -887,6 +891,9 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -416,6 +416,10 @@
   </si>
   <si>
     <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -808,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1212,6 +1216,9 @@
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
       </c>
       <c r="E34" t="s">
         <v>62</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -440,6 +440,30 @@
   </si>
   <si>
     <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,6 +934,9 @@
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
@@ -993,6 +1020,9 @@
       <c r="C15">
         <v>13</v>
       </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
       <c r="E15" t="s">
         <v>24</v>
       </c>
@@ -1004,6 +1034,9 @@
       <c r="C16">
         <v>14</v>
       </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
@@ -1267,6 +1300,9 @@
       <c r="C38">
         <v>36</v>
       </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
       <c r="E38" t="s">
         <v>70</v>
       </c>
@@ -1278,6 +1314,9 @@
       <c r="C39">
         <v>37</v>
       </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
       <c r="E39" t="s">
         <v>72</v>
       </c>
@@ -1289,6 +1328,9 @@
       <c r="C40">
         <v>38</v>
       </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
       <c r="E40" t="s">
         <v>74</v>
       </c>
@@ -1389,6 +1431,9 @@
       <c r="C48">
         <v>46</v>
       </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
       <c r="E48" t="s">
         <v>90</v>
       </c>
@@ -1472,6 +1517,9 @@
       <c r="C55">
         <v>53</v>
       </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
       <c r="E55" t="s">
         <v>104</v>
       </c>
@@ -1483,6 +1531,9 @@
       <c r="C56">
         <v>54</v>
       </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
       <c r="E56" t="s">
         <v>106</v>
       </c>
@@ -1493,6 +1544,9 @@
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
       </c>
       <c r="E57" t="s">
         <v>108</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -836,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,6 +971,9 @@
       <c r="C10">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
@@ -981,6 +996,9 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
@@ -1116,6 +1134,9 @@
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="156">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -477,6 +477,46 @@
   <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Oe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E </t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>Bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>Sm</t>
+  </si>
+  <si>
+    <t>Ia</t>
+  </si>
+  <si>
+    <t>Ob</t>
+  </si>
+  <si>
+    <t>Oa</t>
   </si>
 </sst>
 </file>
@@ -849,7 +889,7 @@
   <dimension ref="B2:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,6 +999,9 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -483,40 +483,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Oe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E </t>
-  </si>
-  <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>Du</t>
-  </si>
-  <si>
-    <t>Bn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B </t>
-  </si>
-  <si>
-    <t>Sm</t>
-  </si>
-  <si>
-    <t>Ia</t>
-  </si>
-  <si>
-    <t>Ob</t>
-  </si>
-  <si>
-    <t>Oa</t>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -888,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,6 +1406,9 @@
       <c r="C43">
         <v>41</v>
       </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
       <c r="E43" t="s">
         <v>80</v>
       </c>
@@ -1508,6 +1483,9 @@
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
       </c>
       <c r="E49" t="s">
         <v>92</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -858,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F59"/>
+  <dimension ref="C2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,7 +872,7 @@
     <col min="6" max="6" width="88.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>127</v>
       </c>
@@ -886,11 +886,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="b">
-        <f>ISBLANK(表1[[#This Row],[进度]])</f>
-        <v>0</v>
-      </c>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>1</v>
       </c>
@@ -904,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
@@ -915,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>3</v>
       </c>
@@ -926,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>4</v>
       </c>
@@ -940,7 +936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>5</v>
       </c>
@@ -954,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>6</v>
       </c>
@@ -968,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>7</v>
       </c>
@@ -982,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>8</v>
       </c>
@@ -996,7 +992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>9</v>
       </c>
@@ -1007,7 +1003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10</v>
       </c>
@@ -1021,7 +1017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>11</v>
       </c>
@@ -1035,7 +1031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>12</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>13</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>14</v>
       </c>
@@ -1299,6 +1295,9 @@
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
       </c>
       <c r="E35" t="s">
         <v>64</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="147">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -476,6 +476,10 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -860,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,6 +1249,9 @@
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
       </c>
       <c r="E31" t="s">
         <v>56</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -488,6 +488,30 @@
   </si>
   <si>
     <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -864,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -908,6 +932,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -919,6 +946,9 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -1178,6 +1208,9 @@
       <c r="C25">
         <v>23</v>
       </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
       <c r="E25" t="s">
         <v>44</v>
       </c>
@@ -1189,6 +1222,9 @@
       <c r="C26">
         <v>24</v>
       </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
       <c r="E26" t="s">
         <v>46</v>
       </c>
@@ -1214,6 +1250,9 @@
       <c r="C28">
         <v>26</v>
       </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
       <c r="E28" t="s">
         <v>50</v>
       </c>
@@ -1426,6 +1465,9 @@
       <c r="C44">
         <v>42</v>
       </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
       <c r="E44" t="s">
         <v>82</v>
       </c>
@@ -1515,6 +1557,9 @@
       <c r="C51">
         <v>49</v>
       </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
       <c r="E51" t="s">
         <v>96</v>
       </c>
@@ -1525,6 +1570,9 @@
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
       </c>
       <c r="E52" t="s">
         <v>98</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -111,407 +111,416 @@
     <t>Popup dialog with standard buttons and a title, used for short-term interaction with the user</t>
   </si>
   <si>
+    <t>A button box used in dialogs</t>
+  </si>
+  <si>
+    <t>Drawer</t>
+  </si>
+  <si>
+    <t>Side panel that can be opened and closed using a swipe gesture</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Visual frame for a logical group of controls</t>
+  </si>
+  <si>
+    <t>GroupBox</t>
+  </si>
+  <si>
+    <t>Visual frame and title for a logical group of controls</t>
+  </si>
+  <si>
+    <t>ItemDelegate</t>
+  </si>
+  <si>
+    <t>Basic item delegate that can be used in various views and controls</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Styled text label with inherited font</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Popup that can be used as a context menu or popup menu</t>
+  </si>
+  <si>
+    <t>MenuBar</t>
+  </si>
+  <si>
+    <t>Provides a window menu bar</t>
+  </si>
+  <si>
+    <t>MenuBarItem</t>
+  </si>
+  <si>
+    <t>Presents a drop-down menu within a MenuBar</t>
+  </si>
+  <si>
+    <t>MenuItem</t>
+  </si>
+  <si>
+    <t>Presents an item within a Menu</t>
+  </si>
+  <si>
+    <t>MenuSeparator</t>
+  </si>
+  <si>
+    <t>Separates a group of items in a menu from adjacent items</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>A window overlay for popups</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Styled page control with support for a header and footer</t>
+  </si>
+  <si>
+    <t>PageIndicator</t>
+  </si>
+  <si>
+    <t>Indicates the currently active page</t>
+  </si>
+  <si>
+    <t>Pane</t>
+  </si>
+  <si>
+    <t>Provides a background matching with the application style and theme</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>Base type of popup-like user interface controls</t>
+  </si>
+  <si>
+    <t>ProgressBar</t>
+  </si>
+  <si>
+    <t>Indicates the progress of an operation</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>Exclusive radio button that can be toggled on or off</t>
+  </si>
+  <si>
+    <t>RadioDelegate</t>
+  </si>
+  <si>
+    <t>Exclusive item delegate with a radio indicator that can be toggled on or off</t>
+  </si>
+  <si>
+    <t>RangeSlider</t>
+  </si>
+  <si>
+    <t>Used to select a range of values by sliding two handles along a track</t>
+  </si>
+  <si>
+    <t>RoundButton</t>
+  </si>
+  <si>
+    <t>A push-button control with rounded corners that can be clicked by the user</t>
+  </si>
+  <si>
+    <t>ScrollBar</t>
+  </si>
+  <si>
+    <t>Vertical or horizontal interactive scroll bar</t>
+  </si>
+  <si>
+    <t>ScrollIndicator</t>
+  </si>
+  <si>
+    <t>Vertical or horizontal non-interactive scroll indicator</t>
+  </si>
+  <si>
+    <t>ScrollView</t>
+  </si>
+  <si>
+    <t>Scrollable view</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>Used to select a value by sliding a handle along a track</t>
+  </si>
+  <si>
+    <t>SpinBox</t>
+  </si>
+  <si>
+    <t>Allows the user to select from a set of preset values</t>
+  </si>
+  <si>
+    <t>SplitHandle</t>
+  </si>
+  <si>
+    <t>Provides attached properties for SplitView handles</t>
+  </si>
+  <si>
+    <t>SplitView</t>
+  </si>
+  <si>
+    <t>Lays out items with a draggable splitter between each item</t>
+  </si>
+  <si>
+    <t>StackView</t>
+  </si>
+  <si>
+    <t>Provides a stack-based navigation model</t>
+  </si>
+  <si>
+    <t>SwipeDelegate</t>
+  </si>
+  <si>
+    <t>Swipable item delegate</t>
+  </si>
+  <si>
+    <t>SwipeView</t>
+  </si>
+  <si>
+    <t>Enables the user to navigate pages by swiping sideways</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Button that can be toggled on or off</t>
+  </si>
+  <si>
+    <t>SwitchDelegate</t>
+  </si>
+  <si>
+    <t>Item delegate with a switch indicator that can be toggled on or off</t>
+  </si>
+  <si>
+    <t>TabBar</t>
+  </si>
+  <si>
+    <t>Allows the user to switch between different views or subtasks</t>
+  </si>
+  <si>
+    <t>TabButton</t>
+  </si>
+  <si>
+    <t>Button with a look suitable for a TabBar</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>Multi-line text input area</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>Single-line text input field</t>
+  </si>
+  <si>
+    <t>ToolBar</t>
+  </si>
+  <si>
+    <t>Container for context-sensitive controls</t>
+  </si>
+  <si>
+    <t>ToolButton</t>
+  </si>
+  <si>
+    <t>Button with a look suitable for a ToolBar</t>
+  </si>
+  <si>
+    <t>ToolSeparator</t>
+  </si>
+  <si>
+    <t>Separates a group of items in a toolbar from adjacent items</t>
+  </si>
+  <si>
+    <t>ToolTip</t>
+  </si>
+  <si>
+    <t>Provides tool tips for any control</t>
+  </si>
+  <si>
+    <t>Tumbler</t>
+  </si>
+  <si>
+    <t>Spinnable wheel of items that can be selected</t>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DialogButtonBox</t>
-  </si>
-  <si>
-    <t>A button box used in dialogs</t>
-  </si>
-  <si>
-    <t>Drawer</t>
-  </si>
-  <si>
-    <t>Side panel that can be opened and closed using a swipe gesture</t>
-  </si>
-  <si>
-    <t>Frame</t>
-  </si>
-  <si>
-    <t>Visual frame for a logical group of controls</t>
-  </si>
-  <si>
-    <t>GroupBox</t>
-  </si>
-  <si>
-    <t>Visual frame and title for a logical group of controls</t>
-  </si>
-  <si>
-    <t>ItemDelegate</t>
-  </si>
-  <si>
-    <t>Basic item delegate that can be used in various views and controls</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Styled text label with inherited font</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Popup that can be used as a context menu or popup menu</t>
-  </si>
-  <si>
-    <t>MenuBar</t>
-  </si>
-  <si>
-    <t>Provides a window menu bar</t>
-  </si>
-  <si>
-    <t>MenuBarItem</t>
-  </si>
-  <si>
-    <t>Presents a drop-down menu within a MenuBar</t>
-  </si>
-  <si>
-    <t>MenuItem</t>
-  </si>
-  <si>
-    <t>Presents an item within a Menu</t>
-  </si>
-  <si>
-    <t>MenuSeparator</t>
-  </si>
-  <si>
-    <t>Separates a group of items in a menu from adjacent items</t>
-  </si>
-  <si>
-    <t>Overlay</t>
-  </si>
-  <si>
-    <t>A window overlay for popups</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Styled page control with support for a header and footer</t>
-  </si>
-  <si>
-    <t>PageIndicator</t>
-  </si>
-  <si>
-    <t>Indicates the currently active page</t>
-  </si>
-  <si>
-    <t>Pane</t>
-  </si>
-  <si>
-    <t>Provides a background matching with the application style and theme</t>
-  </si>
-  <si>
-    <t>Popup</t>
-  </si>
-  <si>
-    <t>Base type of popup-like user interface controls</t>
-  </si>
-  <si>
-    <t>ProgressBar</t>
-  </si>
-  <si>
-    <t>Indicates the progress of an operation</t>
-  </si>
-  <si>
-    <t>RadioButton</t>
-  </si>
-  <si>
-    <t>Exclusive radio button that can be toggled on or off</t>
-  </si>
-  <si>
-    <t>RadioDelegate</t>
-  </si>
-  <si>
-    <t>Exclusive item delegate with a radio indicator that can be toggled on or off</t>
-  </si>
-  <si>
-    <t>RangeSlider</t>
-  </si>
-  <si>
-    <t>Used to select a range of values by sliding two handles along a track</t>
-  </si>
-  <si>
-    <t>RoundButton</t>
-  </si>
-  <si>
-    <t>A push-button control with rounded corners that can be clicked by the user</t>
-  </si>
-  <si>
-    <t>ScrollBar</t>
-  </si>
-  <si>
-    <t>Vertical or horizontal interactive scroll bar</t>
-  </si>
-  <si>
-    <t>ScrollIndicator</t>
-  </si>
-  <si>
-    <t>Vertical or horizontal non-interactive scroll indicator</t>
-  </si>
-  <si>
-    <t>ScrollView</t>
-  </si>
-  <si>
-    <t>Scrollable view</t>
-  </si>
-  <si>
-    <t>Slider</t>
-  </si>
-  <si>
-    <t>Used to select a value by sliding a handle along a track</t>
-  </si>
-  <si>
-    <t>SpinBox</t>
-  </si>
-  <si>
-    <t>Allows the user to select from a set of preset values</t>
-  </si>
-  <si>
-    <t>SplitHandle</t>
-  </si>
-  <si>
-    <t>Provides attached properties for SplitView handles</t>
-  </si>
-  <si>
-    <t>SplitView</t>
-  </si>
-  <si>
-    <t>Lays out items with a draggable splitter between each item</t>
-  </si>
-  <si>
-    <t>StackView</t>
-  </si>
-  <si>
-    <t>Provides a stack-based navigation model</t>
-  </si>
-  <si>
-    <t>SwipeDelegate</t>
-  </si>
-  <si>
-    <t>Swipable item delegate</t>
-  </si>
-  <si>
-    <t>SwipeView</t>
-  </si>
-  <si>
-    <t>Enables the user to navigate pages by swiping sideways</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Button that can be toggled on or off</t>
-  </si>
-  <si>
-    <t>SwitchDelegate</t>
-  </si>
-  <si>
-    <t>Item delegate with a switch indicator that can be toggled on or off</t>
-  </si>
-  <si>
-    <t>TabBar</t>
-  </si>
-  <si>
-    <t>Allows the user to switch between different views or subtasks</t>
-  </si>
-  <si>
-    <t>TabButton</t>
-  </si>
-  <si>
-    <t>Button with a look suitable for a TabBar</t>
-  </si>
-  <si>
-    <t>TextArea</t>
-  </si>
-  <si>
-    <t>Multi-line text input area</t>
-  </si>
-  <si>
-    <t>TextField</t>
-  </si>
-  <si>
-    <t>Single-line text input field</t>
-  </si>
-  <si>
-    <t>ToolBar</t>
-  </si>
-  <si>
-    <t>Container for context-sensitive controls</t>
-  </si>
-  <si>
-    <t>ToolButton</t>
-  </si>
-  <si>
-    <t>Button with a look suitable for a ToolBar</t>
-  </si>
-  <si>
-    <t>ToolSeparator</t>
-  </si>
-  <si>
-    <t>Separates a group of items in a toolbar from adjacent items</t>
-  </si>
-  <si>
-    <t>ToolTip</t>
-  </si>
-  <si>
-    <t>Provides tool tips for any control</t>
-  </si>
-  <si>
-    <t>Tumbler</t>
-  </si>
-  <si>
-    <t>Spinnable wheel of items that can be selected</t>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None(知道有整个类就行)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None(知道有整个类就行)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None(知道有整个类就行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -889,7 +898,7 @@
   <dimension ref="C2:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,16 +911,16 @@
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
@@ -919,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -933,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -947,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -961,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -975,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -989,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1003,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1017,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1042,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1056,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1070,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
@@ -1084,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -1098,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -1111,6 +1120,9 @@
       <c r="C17">
         <v>15</v>
       </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
@@ -1122,11 +1134,14 @@
       <c r="C18">
         <v>16</v>
       </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
       <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
@@ -1134,13 +1149,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
         <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -1148,10 +1163,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
@@ -1159,10 +1174,10 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
@@ -1170,10 +1185,10 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
         <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
@@ -1181,13 +1196,13 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
@@ -1195,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
@@ -1209,13 +1224,13 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
         <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
@@ -1223,13 +1238,13 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
         <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
@@ -1237,13 +1252,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
         <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
@@ -1251,13 +1266,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
         <v>50</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
@@ -1265,13 +1280,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
@@ -1279,10 +1294,10 @@
         <v>28</v>
       </c>
       <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
         <v>54</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
@@ -1290,13 +1305,13 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
         <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
@@ -1304,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
         <v>58</v>
-      </c>
-      <c r="F32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
@@ -1315,13 +1330,13 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
         <v>60</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
@@ -1329,13 +1344,13 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
         <v>62</v>
-      </c>
-      <c r="F34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
@@ -1343,13 +1358,13 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
         <v>64</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
@@ -1357,10 +1372,10 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s">
         <v>66</v>
-      </c>
-      <c r="F36" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
@@ -1368,13 +1383,13 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
         <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
@@ -1382,13 +1397,13 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
         <v>70</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
@@ -1396,13 +1411,13 @@
         <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
         <v>72</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
@@ -1410,13 +1425,13 @@
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
         <v>74</v>
-      </c>
-      <c r="F40" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
@@ -1424,13 +1439,13 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" t="s">
         <v>76</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
@@ -1438,13 +1453,13 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
         <v>78</v>
-      </c>
-      <c r="F42" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
@@ -1452,13 +1467,13 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
         <v>80</v>
-      </c>
-      <c r="F43" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
@@ -1466,13 +1481,13 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
         <v>82</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
@@ -1480,13 +1495,13 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
         <v>84</v>
-      </c>
-      <c r="F45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
@@ -1494,13 +1509,13 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
         <v>86</v>
-      </c>
-      <c r="F46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
@@ -1508,10 +1523,10 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
         <v>88</v>
-      </c>
-      <c r="F47" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
@@ -1519,13 +1534,13 @@
         <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s">
         <v>90</v>
-      </c>
-      <c r="F48" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
@@ -1533,13 +1548,13 @@
         <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s">
         <v>92</v>
-      </c>
-      <c r="F49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
@@ -1547,10 +1562,10 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
         <v>94</v>
-      </c>
-      <c r="F50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
@@ -1558,13 +1573,13 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" t="s">
         <v>96</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
@@ -1572,13 +1587,13 @@
         <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" t="s">
         <v>98</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
@@ -1586,13 +1601,13 @@
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
         <v>100</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
@@ -1600,13 +1615,13 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" t="s">
         <v>102</v>
-      </c>
-      <c r="F54" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
@@ -1614,13 +1629,13 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" t="s">
         <v>104</v>
-      </c>
-      <c r="F55" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
@@ -1628,13 +1643,13 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" t="s">
         <v>106</v>
-      </c>
-      <c r="F56" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
@@ -1642,13 +1657,13 @@
         <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" t="s">
         <v>108</v>
-      </c>
-      <c r="F57" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
@@ -1656,13 +1671,13 @@
         <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" t="s">
         <v>110</v>
-      </c>
-      <c r="F58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
@@ -1670,13 +1685,13 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
         <v>112</v>
-      </c>
-      <c r="F59" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -521,6 +521,22 @@
   </si>
   <si>
     <t>DialogButtonBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -897,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1184,6 +1200,9 @@
       <c r="C22">
         <v>20</v>
       </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
       <c r="E22" t="s">
         <v>37</v>
       </c>
@@ -1371,6 +1390,9 @@
       <c r="C36">
         <v>34</v>
       </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
       <c r="E36" t="s">
         <v>65</v>
       </c>
@@ -1522,6 +1544,9 @@
       <c r="C47">
         <v>45</v>
       </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
       <c r="E47" t="s">
         <v>87</v>
       </c>
@@ -1560,6 +1585,9 @@
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
       </c>
       <c r="E50" t="s">
         <v>93</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1054,6 +1054,9 @@
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>

--- a/control2/appqml/control2/Control2/readme.xlsx
+++ b/control2/appqml/control2/Control2/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>AbstractButton</t>
   </si>
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None(知道有整个类就行)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1181,6 +1185,9 @@
       <c r="C20">
         <v>18</v>
       </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -1192,6 +1199,9 @@
       <c r="C21">
         <v>19</v>
       </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
       <c r="E21" t="s">
         <v>35</v>
       </c>
@@ -1315,6 +1325,9 @@
       <c r="C30">
         <v>28</v>
       </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
       <c r="E30" t="s">
         <v>53</v>
       </c>
@@ -1339,6 +1352,9 @@
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
